--- a/data/evaluation/evaluation_South_Winter_Cabbage.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Cabbage.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15941.38461538462</v>
+        <v>15887.53846153846</v>
       </c>
       <c r="C3" t="n">
-        <v>1224006778</v>
+        <v>1223592162.615385</v>
       </c>
       <c r="D3" t="n">
-        <v>34985.80823705521</v>
+        <v>34979.88225559636</v>
       </c>
       <c r="E3" t="n">
-        <v>-31.91859282961219</v>
+        <v>-31.90744211110934</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11302.67612484738</v>
+        <v>12892.82326742702</v>
       </c>
       <c r="C4" t="n">
-        <v>487417606.4942262</v>
+        <v>656474341.146015</v>
       </c>
       <c r="D4" t="n">
-        <v>22077.53624148823</v>
+        <v>25621.75523156084</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.10867064999829</v>
+        <v>-16.65530381668654</v>
       </c>
     </row>
     <row r="5">
